--- a/biology/Zoologie/Anolis_pulchellus/Anolis_pulchellus.xlsx
+++ b/biology/Zoologie/Anolis_pulchellus/Anolis_pulchellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis pulchellus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis pulchellus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico[1]. Elle se rencontre à Porto Rico et aux îles Vierges.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico. Elle se rencontre à Porto Rico et aux îles Vierges.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anolis pulchellus est de couleur jaune-brun, les mâles ayant un fanon gulaire violet, cramoisi à la pointe.
-Les mâles mesurent jusqu'à 47 mm et les femelles jusqu'à 36 mm[2].
-Cette espèce est le lézard le plus commun à Porto Rico[3]. Une densité de 20 000 individus par hectare peut se rencontrer[2].
-Les Dactyloidae des Grandes Antilles ont été étudiés en détail car il s’agit d’un cas intéressant de radiation évolutive. Les espèces sont plus proches d’autres espèces sur la même île que d’individus de la même espèce sur les îles alentour. De manière surprenante, même si les divergences entre espèces sont indépendantes sur chaque île, le même panel d’écomorphisme est apparu sur chacune des îles[4]. Anolis pulchellus est un lézard vivant dans les buissons et l’herbe et jamais dans les arbres.
+Les mâles mesurent jusqu'à 47 mm et les femelles jusqu'à 36 mm.
+Cette espèce est le lézard le plus commun à Porto Rico. Une densité de 20 000 individus par hectare peut se rencontrer.
+Les Dactyloidae des Grandes Antilles ont été étudiés en détail car il s’agit d’un cas intéressant de radiation évolutive. Les espèces sont plus proches d’autres espèces sur la même île que d’individus de la même espèce sur les îles alentour. De manière surprenante, même si les divergences entre espèces sont indépendantes sur chaque île, le même panel d’écomorphisme est apparu sur chacune des îles. Anolis pulchellus est un lézard vivant dans les buissons et l’herbe et jamais dans les arbres.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique pulchellus vient du latin pulchellus, joli, en référence à l'aspect de ce saurien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique pulchellus vient du latin pulchellus, joli, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril et Bibron, Erpétologie Générale ou Histoire Naturelle Complète des Reptiles, vol. 4, Paris, Librairie Encyclopédique Roret, 1837 (lire en ligne), p. 1-570</t>
         </is>
